--- a/POAM.xlsx
+++ b/POAM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakeyr\Documents\GitHub\ScanResultsProcessor-RMF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
   </bookViews>
@@ -105,6 +110,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -152,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +410,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/POAM.xlsx
+++ b/POAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakeyr\Documents\GitHub\ScanResultsProcessor-RMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scan Results Processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>CAT</t>
   </si>
   <si>
-    <t>IA Security Control</t>
-  </si>
-  <si>
     <t>POC</t>
   </si>
   <si>
@@ -57,12 +54,15 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Security Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -410,7 +410,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -436,31 +436,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
